--- a/Main Website/media/IDFC_HL/FOS Salary/FINAL PAYOUT IDFC-HL.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/FINAL PAYOUT IDFC-HL.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,37 +456,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DESIGNATION</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>STAFF</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>EMPLOYEE_STATUS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
     </row>
@@ -509,34 +495,30 @@
       <c r="D2" t="n">
         <v>5571</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>35637</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -554,34 +536,30 @@
       <c r="D3" t="n">
         <v>13000</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P138</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>32676</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -591,7 +569,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5377.814499999999</v>
+        <v>5377.81</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -599,34 +577,30 @@
       <c r="D4" t="n">
         <v>13000</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P019</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>32937</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -636,7 +610,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6149.025000000001</v>
+        <v>6149.02</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -644,34 +618,30 @@
       <c r="D5" t="n">
         <v>7429</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P111</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>33792</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -689,34 +659,30 @@
       <c r="D6" t="n">
         <v>13000</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P058</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>30239</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -726,7 +692,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3249.229999999999</v>
+        <v>3249.23</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -734,34 +700,30 @@
       <c r="D7" t="n">
         <v>6314</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P112</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>32920</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -779,34 +741,30 @@
       <c r="D8" t="n">
         <v>9286</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>21860</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -816,7 +774,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6152.259999999999</v>
+        <v>6152.26</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -824,34 +782,30 @@
       <c r="D9" t="n">
         <v>6686</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>32793</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -861,7 +815,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9580.545</v>
+        <v>9580.549999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -869,34 +823,30 @@
       <c r="D10" t="n">
         <v>13000</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>26879</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -906,7 +856,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10668.515</v>
+        <v>10668.51</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -914,34 +864,30 @@
       <c r="D11" t="n">
         <v>13000</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>32417</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -959,34 +905,30 @@
       <c r="D12" t="n">
         <v>13000</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P261</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>35109</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1004,34 +946,30 @@
       <c r="D13" t="n">
         <v>8171</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>32143</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1049,34 +987,30 @@
       <c r="D14" t="n">
         <v>5571</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P126</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>32587</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1086,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4541.340000000001</v>
+        <v>4541.34</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1094,34 +1028,30 @@
       <c r="D15" t="n">
         <v>13000</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P168</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>29486</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1139,34 +1069,30 @@
       <c r="D16" t="n">
         <v>9657</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>32740</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1184,34 +1110,30 @@
       <c r="D17" t="n">
         <v>6314</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P270</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>27824</v>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/IDFC_HL/FOS Salary/FINAL PAYOUT IDFC-HL.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/FINAL PAYOUT IDFC-HL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
@@ -495,27 +500,28 @@
       <c r="D2" t="n">
         <v>5571</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -536,27 +542,28 @@
       <c r="D3" t="n">
         <v>13000</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>P138</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -577,27 +584,28 @@
       <c r="D4" t="n">
         <v>13000</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>P019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -618,27 +626,28 @@
       <c r="D5" t="n">
         <v>7429</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>P111</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -659,29 +668,30 @@
       <c r="D6" t="n">
         <v>13000</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>P058</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -698,29 +708,30 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6314</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -741,27 +752,28 @@
       <c r="D8" t="n">
         <v>9286</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>P020</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -782,27 +794,28 @@
       <c r="D9" t="n">
         <v>6686</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -823,27 +836,28 @@
       <c r="D10" t="n">
         <v>13000</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>P264</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -864,27 +878,28 @@
       <c r="D11" t="n">
         <v>13000</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>P119</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -905,27 +920,28 @@
       <c r="D12" t="n">
         <v>13000</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -946,27 +962,28 @@
       <c r="D13" t="n">
         <v>8171</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>P084</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -987,27 +1004,28 @@
       <c r="D14" t="n">
         <v>5571</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1028,27 +1046,28 @@
       <c r="D15" t="n">
         <v>13000</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>P168</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1069,27 +1088,28 @@
       <c r="D16" t="n">
         <v>9657</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>P064</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1110,27 +1130,28 @@
       <c r="D17" t="n">
         <v>6314</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
